--- a/07 Arrays/2Darray.xlsx
+++ b/07 Arrays/2Darray.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\Rough\java\07 Arrays\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Core java\javaV1\07 Arrays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3760032B-A89C-4185-8506-65AFBED54F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB12B469-4FF9-4788-8E64-B3B59766F596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{400D761B-4D98-43F0-975C-E932740BE7B5}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>(India)0</t>
   </si>
@@ -77,6 +77,51 @@
   </si>
   <si>
     <t>covidCases[1].length=</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>Maharastra</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>san deigo</t>
+  </si>
+  <si>
+    <t>texas</t>
+  </si>
+  <si>
+    <t>san fransisco</t>
+  </si>
+  <si>
+    <t>victoria</t>
+  </si>
+  <si>
+    <t>south australia</t>
+  </si>
+  <si>
+    <t>tasmania</t>
+  </si>
+  <si>
+    <t>new south wales</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>kerala</t>
+  </si>
+  <si>
+    <t>california</t>
   </si>
 </sst>
 </file>
@@ -127,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -136,6 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8BEF0A-D3F9-4E33-8F13-9165B8E4AF76}">
-  <dimension ref="A2:J9"/>
+  <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="178" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,8 +507,9 @@
     <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -618,6 +665,86 @@
         <v>4</v>
       </c>
     </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/07 Arrays/2Darray.xlsx
+++ b/07 Arrays/2Darray.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Core java\javaV1\07 Arrays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB12B469-4FF9-4788-8E64-B3B59766F596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5C8761-FFCA-4B9E-9B7C-A12E964E7C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{400D761B-4D98-43F0-975C-E932740BE7B5}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>(India)0</t>
   </si>
@@ -67,18 +67,6 @@
     <t>(Australia)2</t>
   </si>
   <si>
-    <t>states[3][4]</t>
-  </si>
-  <si>
-    <t>covidCases[3][4]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">covidCases.length = </t>
-  </si>
-  <si>
-    <t>covidCases[1].length=</t>
-  </si>
-  <si>
     <t>Delhi</t>
   </si>
   <si>
@@ -122,6 +110,30 @@
   </si>
   <si>
     <t>california</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>america</t>
+  </si>
+  <si>
+    <t>australia</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>states[2][1]</t>
+  </si>
+  <si>
+    <t>country.length=3</t>
+  </si>
+  <si>
+    <t>states[0].length=4</t>
+  </si>
+  <si>
+    <t>states.length=3</t>
   </si>
 </sst>
 </file>
@@ -137,12 +149,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -172,16 +190,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,253 +524,279 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8BEF0A-D3F9-4E33-8F13-9165B8E4AF76}">
-  <dimension ref="A2:J14"/>
+  <dimension ref="B2:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="178" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="145" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="10.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E3" s="4">
         <v>2</v>
       </c>
-      <c r="E2" s="2">
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
         <v>3</v>
       </c>
-      <c r="G2" s="2">
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="2">
+      <c r="C6" s="3" t="str" cm="1">
+        <f t="array" ref="C6:F6">{"Delhi","UP","Maharastra","Bihar"}</f>
+        <v>Delhi</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <v>UP</v>
+      </c>
+      <c r="E6" s="3" t="str">
+        <v>Maharastra</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <v>Bihar</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="2">
+      <c r="C7" s="5" t="str" cm="1">
+        <f t="array" ref="C7:F7">{"New York","san deigo","texas","san fransisco"}</f>
+        <v>New York</v>
+      </c>
+      <c r="D7" s="5" t="str">
+        <v>san deigo</v>
+      </c>
+      <c r="E7" s="5" t="str">
+        <v>texas</v>
+      </c>
+      <c r="F7" s="5" t="str">
+        <v>san fransisco</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="2">
+      <c r="C8" s="3" t="str" cm="1">
+        <f t="array" ref="C8:F8">{"victoria","south australia","tasmania","new south wales"}</f>
+        <v>victoria</v>
+      </c>
+      <c r="D8" s="6" t="str">
+        <v>south australia</v>
+      </c>
+      <c r="E8" s="3" t="str">
+        <v>tasmania</v>
+      </c>
+      <c r="F8" s="5" t="str">
+        <v>new south wales</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="str" cm="1">
-        <f t="array" ref="B3:E3">{"Delhi","UP","Maharastra","Bihar"}</f>
-        <v>Delhi</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <v>UP</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <v>Maharastra</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <v>Bihar</v>
-      </c>
-      <c r="F3">
+      <c r="C14" s="3" cm="1">
+        <f t="array" ref="C14:F14">{10,34,67,4}</f>
+        <v>10</v>
+      </c>
+      <c r="D14" s="3">
+        <v>34</v>
+      </c>
+      <c r="E14" s="3">
+        <v>67</v>
+      </c>
+      <c r="F14" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" cm="1">
+        <f t="array" ref="C15:F15">{223,67,57,67}</f>
+        <v>223</v>
+      </c>
+      <c r="D15" s="3">
+        <v>67</v>
+      </c>
+      <c r="E15" s="3">
+        <v>57</v>
+      </c>
+      <c r="F15" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" cm="1">
+        <f t="array" ref="C16:F16">{23,567,517,7}</f>
+        <v>23</v>
+      </c>
+      <c r="D16" s="3">
+        <v>567</v>
+      </c>
+      <c r="E16" s="3">
+        <v>517</v>
+      </c>
+      <c r="F16" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1" cm="1">
-        <f t="array" ref="G3:J3">{10,34,67,4}</f>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1">
-        <v>34</v>
-      </c>
-      <c r="I3" s="1">
-        <v>67</v>
-      </c>
-      <c r="J3" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="str" cm="1">
-        <f t="array" ref="B4:E4">{"New York","san deigo","texas","san fransisco"}</f>
-        <v>New York</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <v>san deigo</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <v>texas</v>
-      </c>
-      <c r="E4" s="1" t="str">
-        <v>san fransisco</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" cm="1">
-        <f t="array" ref="G4:J4">{223,67,57,67}</f>
-        <v>223</v>
-      </c>
-      <c r="H4" s="1">
-        <v>67</v>
-      </c>
-      <c r="I4" s="1">
-        <v>57</v>
-      </c>
-      <c r="J4" s="1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="G22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="str" cm="1">
-        <f t="array" ref="B5:E5">{"victoria","south australia","tasmania","new south wales"}</f>
-        <v>victoria</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <v>south australia</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <v>tasmania</v>
-      </c>
-      <c r="E5" s="1" t="str">
-        <v>new south wales</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" cm="1">
-        <f t="array" ref="G5:J5">{23,567,517,7}</f>
-        <v>23</v>
-      </c>
-      <c r="H5" s="1">
-        <v>567</v>
-      </c>
-      <c r="I5" s="1">
-        <v>517</v>
-      </c>
-      <c r="J5" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2</v>
-      </c>
-      <c r="F11" s="2">
-        <v>3</v>
-      </c>
-      <c r="G11" s="2">
-        <v>4</v>
-      </c>
-      <c r="H11" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F23" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
